--- a/runs/run338/NotionalETEOutput338.xlsx
+++ b/runs/run338/NotionalETEOutput338.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_358.MISSILE_ANGERMAX2_358</t>
+    <t>MISSILE_ANGERMAX0_360.MISSILE_ANGERMAX0_360</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1557.122965095525</v>
+        <v>-1556.902740246236</v>
       </c>
       <c r="J2">
-        <v>1950.646473471077</v>
+        <v>2035.282961894671</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1470.25197459372</v>
+        <v>-1495.521730541979</v>
       </c>
       <c r="J3">
-        <v>1960.976052431827</v>
+        <v>1926.180721644028</v>
       </c>
       <c r="K3">
-        <v>295.8070583243173</v>
+        <v>295.428945766435</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1453.65976329889</v>
+        <v>-1411.509195784726</v>
       </c>
       <c r="J4">
-        <v>1909.29030870946</v>
+        <v>1900.615622608262</v>
       </c>
       <c r="K4">
-        <v>615.1646392331713</v>
+        <v>618.5004793164251</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1366.167813997184</v>
+        <v>-1384.828607360612</v>
       </c>
       <c r="J5">
-        <v>1944.612645785689</v>
+        <v>1829.835263422094</v>
       </c>
       <c r="K5">
-        <v>839.6412050997747</v>
+        <v>893.5494551342615</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1317.306014074913</v>
+        <v>-1363.385274747508</v>
       </c>
       <c r="J6">
-        <v>1774.066480199748</v>
+        <v>1821.769548830657</v>
       </c>
       <c r="K6">
-        <v>1144.244166170381</v>
+        <v>1149.985486854704</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1398.173438436389</v>
+        <v>-1280.323663557569</v>
       </c>
       <c r="J7">
-        <v>1726.42372795242</v>
+        <v>1807.785556879727</v>
       </c>
       <c r="K7">
-        <v>1373.146925999147</v>
+        <v>1358.885855020222</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1333.296157984052</v>
+        <v>-1245.821381306329</v>
       </c>
       <c r="J8">
-        <v>1768.708824444343</v>
+        <v>1680.601616933733</v>
       </c>
       <c r="K8">
-        <v>1638.701430320915</v>
+        <v>1572.434268435763</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.792281228413</v>
+        <v>-100.6533039482318</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1282.044944664794</v>
+        <v>-1235.11106783683</v>
       </c>
       <c r="J9">
-        <v>1667.814884366921</v>
+        <v>1687.153071061048</v>
       </c>
       <c r="K9">
-        <v>1775.961984719641</v>
+        <v>1859.673938776997</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.6830131278163</v>
+        <v>215.7462002308196</v>
       </c>
       <c r="G10">
-        <v>-83.98744048624519</v>
+        <v>-86.94449753006135</v>
       </c>
       <c r="H10">
-        <v>880.0064924067093</v>
+        <v>864.2432387836811</v>
       </c>
       <c r="I10">
-        <v>-1228.368002320465</v>
+        <v>-1230.330287359969</v>
       </c>
       <c r="J10">
-        <v>1628.480078429284</v>
+        <v>1623.088900720962</v>
       </c>
       <c r="K10">
-        <v>1934.822145733055</v>
+        <v>2020.106186046323</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>171.0327234287383</v>
+        <v>176.1790193962198</v>
       </c>
       <c r="G11">
-        <v>-66.00805483192225</v>
+        <v>-64.60117164216969</v>
       </c>
       <c r="H11">
-        <v>1102.352399451384</v>
+        <v>1058.498829848582</v>
       </c>
       <c r="I11">
-        <v>-1232.598532796514</v>
+        <v>-1238.519004615469</v>
       </c>
       <c r="J11">
-        <v>1535.319570435747</v>
+        <v>1622.444705344029</v>
       </c>
       <c r="K11">
-        <v>2086.461634480846</v>
+        <v>2125.618478283555</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.2148857044737</v>
+        <v>134.659658582831</v>
       </c>
       <c r="G12">
-        <v>-49.29069431581953</v>
+        <v>-52.36646122938667</v>
       </c>
       <c r="H12">
-        <v>1132.854918234618</v>
+        <v>1229.025302138946</v>
       </c>
       <c r="I12">
-        <v>-1217.187843603054</v>
+        <v>-1168.62369819634</v>
       </c>
       <c r="J12">
-        <v>1447.359782834665</v>
+        <v>1457.611497964446</v>
       </c>
       <c r="K12">
-        <v>2458.882130644645</v>
+        <v>2344.342717749277</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.9651145165178</v>
+        <v>116.9579735638448</v>
       </c>
       <c r="G13">
-        <v>-32.51692358456995</v>
+        <v>-34.90225393045902</v>
       </c>
       <c r="H13">
-        <v>1231.939931291244</v>
+        <v>1323.337326534408</v>
       </c>
       <c r="I13">
-        <v>-1098.540050946824</v>
+        <v>-1134.78389721679</v>
       </c>
       <c r="J13">
-        <v>1442.349023627123</v>
+        <v>1444.863274700448</v>
       </c>
       <c r="K13">
-        <v>2575.542099518205</v>
+        <v>2449.093595863365</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.7452370318369</v>
+        <v>107.1308048193518</v>
       </c>
       <c r="G14">
-        <v>-17.38594812456514</v>
+        <v>-18.2432383915164</v>
       </c>
       <c r="H14">
-        <v>1302.367149453601</v>
+        <v>1368.348761164274</v>
       </c>
       <c r="I14">
-        <v>-1054.855446447338</v>
+        <v>-1075.252933495835</v>
       </c>
       <c r="J14">
-        <v>1417.09021513164</v>
+        <v>1393.452766518384</v>
       </c>
       <c r="K14">
-        <v>2736.347114399508</v>
+        <v>2711.825889041097</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.4685446779604</v>
+        <v>102.3174331621577</v>
       </c>
       <c r="G15">
-        <v>-0.9292354609112332</v>
+        <v>-0.9522538385733218</v>
       </c>
       <c r="H15">
-        <v>1429.758658714186</v>
+        <v>1390.817153757025</v>
       </c>
       <c r="I15">
-        <v>-1104.466632720095</v>
+        <v>-1094.187743925983</v>
       </c>
       <c r="J15">
-        <v>1340.398893186875</v>
+        <v>1432.303397855749</v>
       </c>
       <c r="K15">
-        <v>2650.975099374396</v>
+        <v>2790.316450539888</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.98308267857335</v>
+        <v>89.72005981194228</v>
       </c>
       <c r="G16">
-        <v>15.2318053796101</v>
+        <v>15.64027231853207</v>
       </c>
       <c r="H16">
-        <v>1484.623916179195</v>
+        <v>1408.651598884598</v>
       </c>
       <c r="I16">
-        <v>-1035.452214084905</v>
+        <v>-995.6910829523644</v>
       </c>
       <c r="J16">
-        <v>1298.909179286304</v>
+        <v>1316.72711236051</v>
       </c>
       <c r="K16">
-        <v>2960.13963542964</v>
+        <v>2927.678209196994</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.12703468351775</v>
+        <v>86.55414833324228</v>
       </c>
       <c r="G17">
-        <v>31.21407772454623</v>
+        <v>31.48848362458465</v>
       </c>
       <c r="H17">
-        <v>1530.421819051907</v>
+        <v>1463.544880645539</v>
       </c>
       <c r="I17">
-        <v>-964.8246023761021</v>
+        <v>-926.7008674288899</v>
       </c>
       <c r="J17">
-        <v>1237.287951800814</v>
+        <v>1265.75112777241</v>
       </c>
       <c r="K17">
-        <v>3028.297368722988</v>
+        <v>2832.248087337573</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.95517181672838</v>
+        <v>83.03451375769333</v>
       </c>
       <c r="G18">
-        <v>48.36586424481241</v>
+        <v>48.01579389741217</v>
       </c>
       <c r="H18">
-        <v>1477.863500648442</v>
+        <v>1522.396688229712</v>
       </c>
       <c r="I18">
-        <v>-887.1579795224985</v>
+        <v>-972.3163045474594</v>
       </c>
       <c r="J18">
-        <v>1239.843563917369</v>
+        <v>1227.998341381797</v>
       </c>
       <c r="K18">
-        <v>3016.729229368912</v>
+        <v>3126.19689373749</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.10401017673338</v>
+        <v>76.24342795614101</v>
       </c>
       <c r="G19">
-        <v>67.77117906334544</v>
+        <v>68.05220557609219</v>
       </c>
       <c r="H19">
-        <v>1518.413914487977</v>
+        <v>1602.884029972374</v>
       </c>
       <c r="I19">
-        <v>-903.9775951070117</v>
+        <v>-904.3256946121766</v>
       </c>
       <c r="J19">
-        <v>1163.853091729812</v>
+        <v>1228.758543612569</v>
       </c>
       <c r="K19">
-        <v>3149.519432451714</v>
+        <v>3108.233107583155</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.03198667823187</v>
+        <v>74.03003578300627</v>
       </c>
       <c r="G20">
-        <v>80.48707031747502</v>
+        <v>83.32955603213058</v>
       </c>
       <c r="H20">
-        <v>1567.250623156519</v>
+        <v>1597.630252671277</v>
       </c>
       <c r="I20">
-        <v>-861.1622212223593</v>
+        <v>-851.665062640694</v>
       </c>
       <c r="J20">
-        <v>1161.434653986745</v>
+        <v>1176.35575928802</v>
       </c>
       <c r="K20">
-        <v>3284.673267830697</v>
+        <v>3087.139071429353</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.346735048073</v>
+        <v>70.26380888218377</v>
       </c>
       <c r="G21">
-        <v>97.64537884417922</v>
+        <v>95.31692141626624</v>
       </c>
       <c r="H21">
-        <v>1521.581450272209</v>
+        <v>1517.804889004645</v>
       </c>
       <c r="I21">
-        <v>-785.1195548858011</v>
+        <v>-819.3664441518582</v>
       </c>
       <c r="J21">
-        <v>1073.50919509387</v>
+        <v>1052.058920209568</v>
       </c>
       <c r="K21">
-        <v>3078.197223103894</v>
+        <v>3161.054196400431</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.94538173694755</v>
+        <v>66.10842310879444</v>
       </c>
       <c r="G22">
-        <v>116.6293033516936</v>
+        <v>115.1089708288782</v>
       </c>
       <c r="H22">
-        <v>1652.29265502621</v>
+        <v>1612.193132302471</v>
       </c>
       <c r="I22">
-        <v>-713.7150211271608</v>
+        <v>-742.3522399582469</v>
       </c>
       <c r="J22">
-        <v>1066.768549502554</v>
+        <v>1057.324554095831</v>
       </c>
       <c r="K22">
-        <v>3126.255671933462</v>
+        <v>3185.662504585822</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.19316919928747</v>
+        <v>67.82538417356726</v>
       </c>
       <c r="G23">
-        <v>125.3096244870453</v>
+        <v>129.7433811189557</v>
       </c>
       <c r="H23">
-        <v>1682.235209985012</v>
+        <v>1587.563793297101</v>
       </c>
       <c r="I23">
-        <v>-722.3905835785413</v>
+        <v>-710.834990095261</v>
       </c>
       <c r="J23">
-        <v>986.2335029632488</v>
+        <v>938.0622874212048</v>
       </c>
       <c r="K23">
-        <v>3156.448855827247</v>
+        <v>3227.871536187957</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.26682296238155</v>
+        <v>61.24469189727762</v>
       </c>
       <c r="G24">
-        <v>143.2375580872049</v>
+        <v>152.3531745806517</v>
       </c>
       <c r="H24">
-        <v>1592.543779111441</v>
+        <v>1621.980712387071</v>
       </c>
       <c r="I24">
-        <v>-637.3882589132213</v>
+        <v>-652.0518827641789</v>
       </c>
       <c r="J24">
-        <v>899.6621384569986</v>
+        <v>895.3136264046346</v>
       </c>
       <c r="K24">
-        <v>3117.754792973419</v>
+        <v>3334.557765804947</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.7516531562432</v>
+        <v>62.52697636753177</v>
       </c>
       <c r="G25">
-        <v>157.7712627177378</v>
+        <v>161.0131154978667</v>
       </c>
       <c r="H25">
-        <v>1590.515703919056</v>
+        <v>1733.437519391848</v>
       </c>
       <c r="I25">
-        <v>-573.2209992725246</v>
+        <v>-577.4684898761403</v>
       </c>
       <c r="J25">
-        <v>854.5445202542812</v>
+        <v>862.5080294179839</v>
       </c>
       <c r="K25">
-        <v>3299.254615191031</v>
+        <v>3239.063870497981</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.60067952052256</v>
+        <v>60.81223839500638</v>
       </c>
       <c r="G26">
-        <v>188.516025063109</v>
+        <v>184.0734792187993</v>
       </c>
       <c r="H26">
-        <v>1679.973015451151</v>
+        <v>1609.569852868224</v>
       </c>
       <c r="I26">
-        <v>-565.4272114169937</v>
+        <v>-538.6659011194624</v>
       </c>
       <c r="J26">
-        <v>837.2894781106385</v>
+        <v>811.3388005826821</v>
       </c>
       <c r="K26">
-        <v>2991.299513427897</v>
+        <v>3161.388949258099</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.64295249604395</v>
+        <v>57.69513572867506</v>
       </c>
       <c r="G27">
-        <v>196.9915102196429</v>
+        <v>193.0627286006264</v>
       </c>
       <c r="H27">
-        <v>1717.825266825989</v>
+        <v>1653.058586342908</v>
       </c>
       <c r="I27">
-        <v>-511.1489157978788</v>
+        <v>-505.8256134274302</v>
       </c>
       <c r="J27">
-        <v>764.3285885304629</v>
+        <v>816.4749357299535</v>
       </c>
       <c r="K27">
-        <v>3056.234473779519</v>
+        <v>2963.852787709846</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.32263742482802</v>
+        <v>56.47007615359217</v>
       </c>
       <c r="G28">
-        <v>208.6008593511528</v>
+        <v>218.3065959447492</v>
       </c>
       <c r="H28">
-        <v>1764.410455507717</v>
+        <v>1706.105834706357</v>
       </c>
       <c r="I28">
-        <v>-423.6327627000616</v>
+        <v>-439.4407197019251</v>
       </c>
       <c r="J28">
-        <v>747.7909100964093</v>
+        <v>725.5120087764384</v>
       </c>
       <c r="K28">
-        <v>2854.497479200647</v>
+        <v>2906.076850854837</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.21555117765012</v>
+        <v>53.63273739747633</v>
       </c>
       <c r="G29">
-        <v>232.0192920760716</v>
+        <v>233.5465950860419</v>
       </c>
       <c r="H29">
-        <v>1780.82895565523</v>
+        <v>1666.709881664208</v>
       </c>
       <c r="I29">
-        <v>-396.911493191132</v>
+        <v>-373.2222015856343</v>
       </c>
       <c r="J29">
-        <v>674.6280119809079</v>
+        <v>713.7161481874582</v>
       </c>
       <c r="K29">
-        <v>2919.250649761821</v>
+        <v>2870.743898097848</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.43591179019634</v>
+        <v>51.16090858341381</v>
       </c>
       <c r="G30">
-        <v>240.8071455682845</v>
+        <v>247.718333890195</v>
       </c>
       <c r="H30">
-        <v>1685.908892037297</v>
+        <v>1761.34155297041</v>
       </c>
       <c r="I30">
-        <v>-332.7437504446515</v>
+        <v>-322.7744557042416</v>
       </c>
       <c r="J30">
-        <v>654.2375997470674</v>
+        <v>637.8477017502624</v>
       </c>
       <c r="K30">
-        <v>2778.453288636164</v>
+        <v>2795.324665023497</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.82934447574889</v>
+        <v>52.97937344613568</v>
       </c>
       <c r="G31">
-        <v>265.7229264406309</v>
+        <v>267.5158055705265</v>
       </c>
       <c r="H31">
-        <v>1731.682246727694</v>
+        <v>1783.163110495344</v>
       </c>
       <c r="I31">
-        <v>-269.2759921639807</v>
+        <v>-273.8425021194892</v>
       </c>
       <c r="J31">
-        <v>579.6528265712758</v>
+        <v>560.5122468650843</v>
       </c>
       <c r="K31">
-        <v>2625.443246341842</v>
+        <v>2698.638344718662</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.78648614788548</v>
+        <v>49.48307937432692</v>
       </c>
       <c r="G32">
-        <v>293.4678572371326</v>
+        <v>273.0232606015447</v>
       </c>
       <c r="H32">
-        <v>1791.959786311997</v>
+        <v>1868.105359793766</v>
       </c>
       <c r="I32">
-        <v>-202.170134333783</v>
+        <v>-215.5579677984906</v>
       </c>
       <c r="J32">
-        <v>565.5769791623393</v>
+        <v>532.6066018996297</v>
       </c>
       <c r="K32">
-        <v>2614.947469300309</v>
+        <v>2637.41954373582</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.85797191685135</v>
+        <v>50.34390775184988</v>
       </c>
       <c r="G33">
-        <v>298.1839174658627</v>
+        <v>296.0543018746394</v>
       </c>
       <c r="H33">
-        <v>1756.055712816173</v>
+        <v>1854.772452598566</v>
       </c>
       <c r="I33">
-        <v>-151.5027094268706</v>
+        <v>-152.9288782040254</v>
       </c>
       <c r="J33">
-        <v>469.9022749699552</v>
+        <v>508.8423920516696</v>
       </c>
       <c r="K33">
-        <v>2311.363078354344</v>
+        <v>2455.378687353481</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.26907403384272</v>
+        <v>47.24064465625101</v>
       </c>
       <c r="G34">
-        <v>326.2726912950742</v>
+        <v>317.4207987310738</v>
       </c>
       <c r="H34">
-        <v>1849.720310963693</v>
+        <v>1733.728018338654</v>
       </c>
       <c r="I34">
-        <v>-80.57634388803258</v>
+        <v>-83.27939361839638</v>
       </c>
       <c r="J34">
-        <v>446.3233822999305</v>
+        <v>430.8010501827807</v>
       </c>
       <c r="K34">
-        <v>2288.65826522332</v>
+        <v>2128.413212773882</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.04827797685467</v>
+        <v>47.88262720370496</v>
       </c>
       <c r="G35">
-        <v>325.1811747579738</v>
+        <v>335.8449468679327</v>
       </c>
       <c r="H35">
-        <v>1738.869575640411</v>
+        <v>1788.413624408169</v>
       </c>
       <c r="I35">
-        <v>-19.17070270480381</v>
+        <v>-17.891368735403</v>
       </c>
       <c r="J35">
-        <v>383.6690125348911</v>
+        <v>392.5263574380185</v>
       </c>
       <c r="K35">
-        <v>1967.501015165943</v>
+        <v>2031.001059536761</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.51033839578441</v>
+        <v>48.61067303434275</v>
       </c>
       <c r="G36">
-        <v>343.6732560760373</v>
+        <v>342.4411670381846</v>
       </c>
       <c r="H36">
-        <v>1850.951487261671</v>
+        <v>1855.121688074254</v>
       </c>
       <c r="I36">
-        <v>47.02479339064704</v>
+        <v>49.24161585170402</v>
       </c>
       <c r="J36">
-        <v>331.6527331168934</v>
+        <v>356.3168171656265</v>
       </c>
       <c r="K36">
-        <v>1810.323956318176</v>
+        <v>1841.767221865018</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.74341145560422</v>
+        <v>45.40431692614003</v>
       </c>
       <c r="G37">
-        <v>356.5773102134756</v>
+        <v>354.4588454377972</v>
       </c>
       <c r="H37">
-        <v>1828.943165317605</v>
+        <v>1833.785144445163</v>
       </c>
       <c r="I37">
-        <v>117.5075858354882</v>
+        <v>116.0277754655977</v>
       </c>
       <c r="J37">
-        <v>296.6981444891237</v>
+        <v>312.0126310919269</v>
       </c>
       <c r="K37">
-        <v>1542.728424362633</v>
+        <v>1644.578951081629</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.28626154982178</v>
+        <v>45.50003324531837</v>
       </c>
       <c r="G38">
-        <v>365.1323173466558</v>
+        <v>384.401033880047</v>
       </c>
       <c r="H38">
-        <v>1794.118464211532</v>
+        <v>1913.052356813437</v>
       </c>
       <c r="I38">
-        <v>191.4544555625562</v>
+        <v>184.6747733387425</v>
       </c>
       <c r="J38">
-        <v>246.1879109643905</v>
+        <v>240.4810326273122</v>
       </c>
       <c r="K38">
-        <v>1441.459358858115</v>
+        <v>1423.519246113163</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.40254131982222</v>
+        <v>46.39351573387681</v>
       </c>
       <c r="G39">
-        <v>388.0955705553117</v>
+        <v>402.4954146332059</v>
       </c>
       <c r="H39">
-        <v>1933.343361898332</v>
+        <v>1929.932937019993</v>
       </c>
       <c r="I39">
-        <v>267.7129067473844</v>
+        <v>251.0746797270993</v>
       </c>
       <c r="J39">
-        <v>205.5253883481629</v>
+        <v>192.3102090732561</v>
       </c>
       <c r="K39">
-        <v>1200.972885260498</v>
+        <v>1198.559315778495</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.40298939939611</v>
+        <v>42.37047989491897</v>
       </c>
       <c r="G40">
-        <v>419.3363535407825</v>
+        <v>417.9915116068168</v>
       </c>
       <c r="H40">
-        <v>1831.307286492413</v>
+        <v>1953.401306552422</v>
       </c>
       <c r="I40">
-        <v>320.2896468546935</v>
+        <v>321.4064610819088</v>
       </c>
       <c r="J40">
-        <v>148.1587514403451</v>
+        <v>149.4515399694393</v>
       </c>
       <c r="K40">
-        <v>886.787071779422</v>
+        <v>880.7052899336691</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.89591897712891</v>
+        <v>42.58514357296269</v>
       </c>
       <c r="G41">
-        <v>419.3173683068572</v>
+        <v>416.9639499892981</v>
       </c>
       <c r="H41">
-        <v>1968.18691567228</v>
+        <v>1803.511030795926</v>
       </c>
       <c r="I41">
-        <v>388.0166163633153</v>
+        <v>392.6691187104803</v>
       </c>
       <c r="J41">
-        <v>100.984633742129</v>
+        <v>101.6686589112057</v>
       </c>
       <c r="K41">
-        <v>596.067538846009</v>
+        <v>611.8359604943666</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.33523039090238</v>
+        <v>43.3801603696035</v>
       </c>
       <c r="G42">
-        <v>436.4263565990035</v>
+        <v>425.7435666788529</v>
       </c>
       <c r="H42">
-        <v>1902.946426013205</v>
+        <v>1973.33253995907</v>
       </c>
       <c r="I42">
-        <v>463.6478047225409</v>
+        <v>469.6390013726204</v>
       </c>
       <c r="J42">
-        <v>54.48427564278144</v>
+        <v>53.50328578394645</v>
       </c>
       <c r="K42">
-        <v>350.1223402510375</v>
+        <v>328.4659623890549</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.9047305074115</v>
+        <v>40.34718221630829</v>
       </c>
       <c r="G43">
-        <v>445.2065252241633</v>
+        <v>461.3241120291565</v>
       </c>
       <c r="H43">
-        <v>1956.539886344627</v>
+        <v>1890.201450597279</v>
       </c>
       <c r="I43">
-        <v>578.7483566507339</v>
+        <v>558.8731765380693</v>
       </c>
       <c r="J43">
-        <v>5.218814567941193</v>
+        <v>5.325747613461854</v>
       </c>
       <c r="K43">
-        <v>34.47102069023921</v>
+        <v>33.90564335256131</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.43388895663663</v>
+        <v>42.48669157961886</v>
       </c>
       <c r="G44">
-        <v>474.795278353879</v>
+        <v>472.5708299966562</v>
       </c>
       <c r="H44">
-        <v>1991.316277006421</v>
+        <v>1883.224768405987</v>
       </c>
       <c r="I44">
-        <v>650.6199082325519</v>
+        <v>669.5590997951637</v>
       </c>
       <c r="J44">
-        <v>-41.85164003775274</v>
+        <v>-42.2874098099258</v>
       </c>
       <c r="K44">
-        <v>-275.6993871432986</v>
+        <v>-297.22179969884</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.98440461548102</v>
+        <v>42.96481749120957</v>
       </c>
       <c r="G45">
-        <v>469.8808320668218</v>
+        <v>492.2925720784892</v>
       </c>
       <c r="H45">
-        <v>1938.940023040397</v>
+        <v>1940.745779328662</v>
       </c>
       <c r="I45">
-        <v>745.2796119168413</v>
+        <v>695.0407523744143</v>
       </c>
       <c r="J45">
-        <v>-93.82778356875416</v>
+        <v>-94.80339356884792</v>
       </c>
       <c r="K45">
-        <v>-627.9594635446724</v>
+        <v>-588.5743620637492</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.12699304669995</v>
+        <v>40.9681737290695</v>
       </c>
       <c r="G46">
-        <v>511.5917441969043</v>
+        <v>494.1540233454677</v>
       </c>
       <c r="H46">
-        <v>1924.813117321282</v>
+        <v>1952.48375400992</v>
       </c>
       <c r="I46">
-        <v>820.9684591585499</v>
+        <v>819.0322791931195</v>
       </c>
       <c r="J46">
-        <v>-134.9929504476988</v>
+        <v>-139.9261862370269</v>
       </c>
       <c r="K46">
-        <v>-943.0028980556854</v>
+        <v>-985.3533475174974</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.11777077109068</v>
+        <v>38.61325854578209</v>
       </c>
       <c r="G47">
-        <v>504.8855270504994</v>
+        <v>539.2435911273282</v>
       </c>
       <c r="H47">
-        <v>2025.800476058027</v>
+        <v>1925.696826135109</v>
       </c>
       <c r="I47">
-        <v>876.6878846348725</v>
+        <v>890.612434835189</v>
       </c>
       <c r="J47">
-        <v>-195.8331120995196</v>
+        <v>-182.5191995703568</v>
       </c>
       <c r="K47">
-        <v>-1387.53481770082</v>
+        <v>-1328.22742971464</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.1568636789322</v>
+        <v>37.99510015782142</v>
       </c>
       <c r="G48">
-        <v>562.0907831551966</v>
+        <v>557.354190116522</v>
       </c>
       <c r="H48">
-        <v>2031.98726804303</v>
+        <v>1893.890744279746</v>
       </c>
       <c r="I48">
-        <v>931.1325038631853</v>
+        <v>982.156636947093</v>
       </c>
       <c r="J48">
-        <v>-226.7734103587924</v>
+        <v>-227.0728494331355</v>
       </c>
       <c r="K48">
-        <v>-1666.439511568446</v>
+        <v>-1697.200468653267</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.53218929607659</v>
+        <v>37.54985624671451</v>
       </c>
       <c r="G49">
-        <v>557.7876061689188</v>
+        <v>557.9111235243607</v>
       </c>
       <c r="H49">
-        <v>1922.076895048467</v>
+        <v>1961.017471439458</v>
       </c>
       <c r="I49">
-        <v>1102.43574786955</v>
+        <v>1080.202747616858</v>
       </c>
       <c r="J49">
-        <v>-281.2209224481093</v>
+        <v>-273.798826126894</v>
       </c>
       <c r="K49">
-        <v>-2052.954872044911</v>
+        <v>-2146.31467614214</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.34607992058885</v>
+        <v>39.63364744570908</v>
       </c>
       <c r="G50">
-        <v>577.2843168661868</v>
+        <v>557.6959494460127</v>
       </c>
       <c r="H50">
-        <v>1863.136167614399</v>
+        <v>1897.605609297088</v>
       </c>
       <c r="I50">
-        <v>1112.429575555713</v>
+        <v>1180.1822003663</v>
       </c>
       <c r="J50">
-        <v>-332.1428516928058</v>
+        <v>-349.1257386728366</v>
       </c>
       <c r="K50">
-        <v>-2506.652528002905</v>
+        <v>-2568.080417659117</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.44054207139231</v>
+        <v>36.85866464772194</v>
       </c>
       <c r="G51">
-        <v>613.7515655392249</v>
+        <v>568.9398260864466</v>
       </c>
       <c r="H51">
-        <v>1873.983481516799</v>
+        <v>1978.19812128208</v>
       </c>
       <c r="I51">
-        <v>1236.556512948955</v>
+        <v>1273.157929085244</v>
       </c>
       <c r="J51">
-        <v>-381.247661995559</v>
+        <v>-371.2032541071179</v>
       </c>
       <c r="K51">
-        <v>-2962.866461458588</v>
+        <v>-3041.273999985048</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.85463358507966</v>
+        <v>39.30836415168706</v>
       </c>
       <c r="G52">
-        <v>623.1663589231135</v>
+        <v>623.6731703938618</v>
       </c>
       <c r="H52">
-        <v>2064.130741235486</v>
+        <v>2001.782029161532</v>
       </c>
       <c r="I52">
-        <v>1338.778340433715</v>
+        <v>1317.366334405623</v>
       </c>
       <c r="J52">
-        <v>-417.2757622707713</v>
+        <v>-441.7000476083457</v>
       </c>
       <c r="K52">
-        <v>-3357.919233515618</v>
+        <v>-3347.800283425547</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.47364773507679</v>
+        <v>36.72954847978607</v>
       </c>
       <c r="G53">
-        <v>644.4592138742662</v>
+        <v>636.0324618850394</v>
       </c>
       <c r="H53">
-        <v>2034.302637556719</v>
+        <v>1966.212240584051</v>
       </c>
       <c r="I53">
-        <v>1492.228144396506</v>
+        <v>1389.694469481162</v>
       </c>
       <c r="J53">
-        <v>-496.2709755474349</v>
+        <v>-459.49742069217</v>
       </c>
       <c r="K53">
-        <v>-3861.773035495432</v>
+        <v>-3681.46067854503</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.84587762943393</v>
+        <v>37.47295899371968</v>
       </c>
       <c r="G54">
-        <v>627.444629478287</v>
+        <v>663.2575858934076</v>
       </c>
       <c r="H54">
-        <v>2079.740616406921</v>
+        <v>1930.697689170295</v>
       </c>
       <c r="I54">
-        <v>1575.960827698547</v>
+        <v>1632.008927774495</v>
       </c>
       <c r="J54">
-        <v>-529.3648421166021</v>
+        <v>-551.0330331391044</v>
       </c>
       <c r="K54">
-        <v>-4352.291326425317</v>
+        <v>-4417.435352669783</v>
       </c>
     </row>
   </sheetData>
